--- a/db/excel/sinhvien.xlsx
+++ b/db/excel/sinhvien.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821C5C46-1B66-472F-8FD6-A3F15DD3958B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>table_name</t>
   </si>
@@ -66,19 +67,43 @@
   </si>
   <si>
     <t>Tran Thi Hao</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>địa chỉ</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>23 Nại Hiên Đông 7, Nại Hiên Đông, Sơn Trà, Đà Nẵng</t>
+  </si>
+  <si>
+    <t>5 Lạc Long Quân, Hoà Khánh Bắc, Liên Chiểu, Đà Nẵng</t>
+  </si>
+  <si>
+    <t>116-118-120-122 NGUYỄN TRI PHƯƠNG , PHƯỜNG CHÍNH GIÁN, QUẬN THANH KHÊ, Đà Nẵng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,6 +138,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -160,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,9 +222,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +274,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,11 +466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,10 +534,27 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -483,51 +563,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>